--- a/biology/Médecine/Paul_Curie/Paul_Curie.xlsx
+++ b/biology/Médecine/Paul_Curie/Paul_Curie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul François Gustave Étienne Curie, dit Paulin Curie et Paul Francis Curie en anglais (né le 16 novembre 1799 à Grand-Charmont dans le Doubs et décédé le 5 octobre 1853 à Londres), est un homéopathe et grand saint-simonien[1], humaniste malthusien engagé. Il est également le grand-père du célèbre physicien Pierre Curie (connu pour ses travaux sur le radium et la piézoélectricité), et de Jacques Curie, également physicien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul François Gustave Étienne Curie, dit Paulin Curie et Paul Francis Curie en anglais (né le 16 novembre 1799 à Grand-Charmont dans le Doubs et décédé le 5 octobre 1853 à Londres), est un homéopathe et grand saint-simonien, humaniste malthusien engagé. Il est également le grand-père du célèbre physicien Pierre Curie (connu pour ses travaux sur le radium et la piézoélectricité), et de Jacques Curie, également physicien.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine en 1824[2], il étudie les écrits de Samuel Hahnemann sur l'homéopathie dès 1832.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine en 1824, il étudie les écrits de Samuel Hahnemann sur l'homéopathie dès 1832.
 Il est marié à Augustine Hofer, (fille de Jean Hofer et arrière-petite-fille de Jean-Henri Dollfus, grands industriels mulhousiens de la seconde moitié du XVIIIe siècle et de la première partie du XIXe siècle), avec qui il aura un fils, Eugène Curie.
-Il vit à Paris de 1833 à 1835, puis est appelé à Londres par William Leaf pour fonder un dispensaire homéopathique[3].
+Il vit à Paris de 1833 à 1835, puis est appelé à Londres par William Leaf pour fonder un dispensaire homéopathique.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(en) Principles of homoeopathy « Les principes de l'homéopathie », Paul Francis Curie[4].
-(en) Practice of Homoeopathy, Paul Francis Curie. Editio princeps chez J.B. Baillière[5].
-(en) Domestic Homeopathy, Paul Francis Curie et Gideon Humphrey. Editio princeps chez Jesper Harding publishing, Philadelphia, 1839[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Principles of homoeopathy « Les principes de l'homéopathie », Paul Francis Curie.
+(en) Practice of Homoeopathy, Paul Francis Curie. Editio princeps chez J.B. Baillière.
+(en) Domestic Homeopathy, Paul Francis Curie et Gideon Humphrey. Editio princeps chez Jesper Harding publishing, Philadelphia, 1839.</t>
         </is>
       </c>
     </row>
